--- a/chapters/ch03-Population/datasets/WorldPopulationvsTime.xlsx
+++ b/chapters/ch03-Population/datasets/WorldPopulationvsTime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://calvincollege-my.sharepoint.com/personal/jva_calvin_edu/Documents/Documents/latex/books/MCBook2021/chapters/ch03-Population/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{090E76B7-187A-42C9-9D8E-E5FDF76F4A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{262E43C4-98F1-4C1B-A1FC-B5BBD4F20DEF}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{090E76B7-187A-42C9-9D8E-E5FDF76F4A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A17CDF8A-3D88-4646-B854-AA5842323758}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data to plot" sheetId="12" r:id="rId1"/>
@@ -5798,37 +5798,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5873,56 +5843,49 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.22825678040244973"/>
-                  <c:y val="1.0509623797025371E-3"/>
+                  <c:x val="-0.2726408573928259"/>
+                  <c:y val="2.8569553805774278E-2"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>y = 0.1843e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="30000"/>
+                      <a:t>0.0121x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>R² = 0.9786</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="3200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -5955,224 +5918,233 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'UN recent data and predictions'!$A$3:$A$74</c:f>
+              <c:f>'past data to plot'!$A$35:$A$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1950</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>1951</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>1952</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>1953</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>1954</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>1955</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>1956</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>1957</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>1958</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>1959</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>1960</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>1961</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>1962</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>1963</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>1964</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>1965</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>1966</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>1967</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>1968</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>1969</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>1970</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>1971</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>1972</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>1973</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>1974</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>1975</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>1976</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>1977</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>1978</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>1979</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>1980</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>1981</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>1982</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>1983</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>1984</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>1985</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>1986</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>1987</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>1988</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>1989</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>1990</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>1991</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>1992</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>1993</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>1994</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
                   <c:v>1995</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>1996</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>1997</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>1998</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="52">
                   <c:v>1999</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="53">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="54">
                   <c:v>2001</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="55">
                   <c:v>2002</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="56">
                   <c:v>2003</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="57">
                   <c:v>2004</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="58">
                   <c:v>2005</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="59">
                   <c:v>2006</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="60">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="61">
                   <c:v>2008</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="62">
                   <c:v>2009</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="63">
                   <c:v>2010</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="64">
                   <c:v>2011</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="65">
                   <c:v>2012</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="66">
                   <c:v>2013</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="67">
                   <c:v>2014</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="68">
                   <c:v>2015</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="69">
                   <c:v>2016</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="70">
                   <c:v>2017</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="71">
                   <c:v>2018</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="72">
                   <c:v>2019</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="73">
                   <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="74">
                   <c:v>2021</c:v>
                 </c:pt>
               </c:numCache>
@@ -6180,224 +6152,233 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'UN recent data and predictions'!$B$3:$B$74</c:f>
+              <c:f>'past data to plot'!$B$35:$B$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
+                  <c:v>1912110935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2091893626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2307348107</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2536431000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>2584034000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>2630862000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>2677609000</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>2724847000</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>2773020000</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>2822443000</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>2873306000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>2925687000</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>2979576000</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>3034950000</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>3091844000</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>3150421000</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>3211001000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>3273978000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>3339584000</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>3407923000</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>3478770000</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>3551599000</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>3625681000</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>3700437000</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>3775760000</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>3851651000</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>3927781000</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>4003794000</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>4079480000</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>4154667000</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>4229506000</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
                   <c:v>4304534000</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="32">
                   <c:v>4380506000</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="33">
                   <c:v>4458003000</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="34">
                   <c:v>4536997000</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="35">
                   <c:v>4617387000</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="36">
                   <c:v>4699569000</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="37">
                   <c:v>4784012000</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="38">
                   <c:v>4870922000</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="39">
                   <c:v>4960568000</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="40">
                   <c:v>5052522000</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>5145426000</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>5237441000</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>5327231000</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>5414289000</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
                   <c:v>5498920000</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="46">
                   <c:v>5581598000</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="47">
                   <c:v>5663150000</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="48">
                   <c:v>5744213000</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="49">
                   <c:v>5824892000</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="50">
                   <c:v>5905046000</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="51">
                   <c:v>5984794000</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="52">
                   <c:v>6064239000</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="53">
                   <c:v>6143494000</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="54">
                   <c:v>6222627000</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="55">
                   <c:v>6301773000</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="56">
                   <c:v>6381185000</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="57">
                   <c:v>6461159000</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="58">
                   <c:v>6541907000</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="59">
                   <c:v>6623518000</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="60">
                   <c:v>6705947000</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="61">
                   <c:v>6789089000</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="62">
                   <c:v>6872767000</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="63">
                   <c:v>6956824000</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="64">
                   <c:v>7041194000</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="65">
                   <c:v>7125828000</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="66">
                   <c:v>7210582000</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="67">
                   <c:v>7295291000</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="68">
                   <c:v>7379797000</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="69">
                   <c:v>7464022000</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="70">
                   <c:v>7547859000</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="71">
                   <c:v>7631091000</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="72">
                   <c:v>7713468000</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="73">
                   <c:v>7794799000</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="74">
                   <c:v>7874966000</c:v>
                 </c:pt>
               </c:numCache>
@@ -6406,7 +6387,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5807-4F6F-8E52-E10991FDB56C}"/>
+              <c16:uniqueId val="{00000000-212F-4A6A-91A9-7DB7196EA384}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6418,11 +6399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475963304"/>
-        <c:axId val="466308768"/>
+        <c:axId val="1003455640"/>
+        <c:axId val="1003455968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475963304"/>
+        <c:axId val="1003455640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6479,12 +6460,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466308768"/>
+        <c:crossAx val="1003455968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466308768"/>
+        <c:axId val="1003455968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6504,6 +6485,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>World Population</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6541,7 +6577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475963304"/>
+        <c:crossAx val="1003455640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8943,6 +8979,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>491924</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>55943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>77165</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>115745</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E490A7C-42DF-44D0-BE65-D77557130C0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8990,42 +9062,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC95BD6D-FCDB-413F-A74E-29DF341281A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9330,7 +9366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40F1D32-581D-4EC8-B7C9-5C05F0F013D8}">
   <dimension ref="A1:D427"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -21948,8 +21984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0612EB81-6C50-43D2-B244-5262AA7D49B3}">
   <dimension ref="A1:M188"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="79" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23871,7 +23907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2BEB30-77F8-4A02-9707-B4233E26D9C8}">
   <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B74"/>
     </sheetView>
   </sheetViews>
@@ -25371,18 +25407,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25405,14 +25441,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F33A38D-A7B7-4084-8BA5-D70A0A500835}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5958FCF4-460A-4148-884C-1B5ED9E474CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -25427,4 +25455,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F33A38D-A7B7-4084-8BA5-D70A0A500835}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>